--- a/Company List.xlsx
+++ b/Company List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek\Documents\VCG\Email Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D7E25F-E26F-497B-8535-E1CE66905313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9A2B45-0C2C-48F6-A986-2D2FC0D2AF9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37EAE06A-A1F8-4961-88BE-1D0A35FBAFFD}"/>
   </bookViews>
@@ -25,66 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Company</t>
   </si>
   <si>
-    <t>Snapchat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronic Arts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco </t>
-  </si>
-  <si>
-    <t>Waymo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netflix </t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alibaba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youtube </t>
-  </si>
-  <si>
-    <t>Fitbit</t>
-  </si>
-  <si>
-    <t>Khan Academy</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>Activision Blizzard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinhood </t>
-  </si>
-  <si>
-    <t>Wework</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>ESPN</t>
-  </si>
-  <si>
-    <t>Palantir</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>SoundCloud</t>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>Chegg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotify </t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Hulu</t>
+  </si>
+  <si>
+    <t>Yahoo!</t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>Angellist</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Venmo</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>TedEd</t>
+  </si>
+  <si>
+    <t>Postmates</t>
+  </si>
+  <si>
+    <t>21st Century Fox</t>
+  </si>
+  <si>
+    <t>Delta Air Lines</t>
+  </si>
+  <si>
+    <t>Tiffany &amp; Co.</t>
   </si>
 </sst>
 </file>
@@ -134,10 +137,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87303A4-6B4F-4D01-A54D-B92DEF52B516}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,103 +467,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Company List.xlsx
+++ b/Company List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek\Documents\VCG\Email Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9A2B45-0C2C-48F6-A986-2D2FC0D2AF9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F0DD04-C49B-404E-B99C-8BE2050A2560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37EAE06A-A1F8-4961-88BE-1D0A35FBAFFD}"/>
   </bookViews>
@@ -25,76 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Company</t>
   </si>
   <si>
-    <t>Uber</t>
-  </si>
-  <si>
-    <t>Expedia</t>
-  </si>
-  <si>
-    <t>Chegg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spotify </t>
-  </si>
-  <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>Hulu</t>
-  </si>
-  <si>
-    <t>Yahoo!</t>
-  </si>
-  <si>
-    <t>Yelp</t>
-  </si>
-  <si>
-    <t>Angellist</t>
-  </si>
-  <si>
-    <t>Coursera</t>
+    <t>Linkedin</t>
   </si>
   <si>
     <t>Google</t>
-  </si>
-  <si>
-    <t>Venmo</t>
-  </si>
-  <si>
-    <t>Slack</t>
-  </si>
-  <si>
-    <t>Ebay</t>
-  </si>
-  <si>
-    <t>Disney</t>
-  </si>
-  <si>
-    <t>TedEd</t>
-  </si>
-  <si>
-    <t>Postmates</t>
-  </si>
-  <si>
-    <t>21st Century Fox</t>
-  </si>
-  <si>
-    <t>Delta Air Lines</t>
-  </si>
-  <si>
-    <t>Tiffany &amp; Co.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +50,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444950"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -135,10 +86,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,119 +411,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87303A4-6B4F-4D01-A54D-B92DEF52B516}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
